--- a/Opta's team IDs.xlsx
+++ b/Opta's team IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\Working stuffs\Analysis\Olympic FC\Data app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\olympicdataapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{336D200C-A314-45B0-9932-DD7D2C796129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E4F571-874D-4114-9874-6E4A1EF75030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F28DA526-CE2E-4372-A0B3-BBEB7837949B}"/>
   </bookViews>
@@ -61,12 +61,6 @@
     <t>Moreton Bay United</t>
   </si>
   <si>
-    <t>LIG</t>
-  </si>
-  <si>
-    <t>Logan Lightning</t>
-  </si>
-  <si>
     <t>LIO</t>
   </si>
   <si>
@@ -91,12 +85,6 @@
     <t>Eastern Suburbs</t>
   </si>
   <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>Capalaba</t>
-  </si>
-  <si>
     <t>BRR</t>
   </si>
   <si>
@@ -121,9 +109,6 @@
     <t>8i26qyy9l1nqijthy5wuji5sr</t>
   </si>
   <si>
-    <t>eeefb39ben225dgazuin4q7ti</t>
-  </si>
-  <si>
     <t>1u6fd4mmcvzdhm0kqa1vqm3ve</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>f4xer4sohvr6auaiqw3ghqd6o</t>
   </si>
   <si>
-    <t>f092mlaa7ooa0spx6qh22ulmy</t>
-  </si>
-  <si>
     <t>9idpx0jys2ghp9ktk0robroq1</t>
   </si>
   <si>
@@ -152,13 +134,31 @@
   </si>
   <si>
     <t>d44s5vzvbgwn0bs2ownvuk8kq</t>
+  </si>
+  <si>
+    <t>Redlands United</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Rochedale Rovers</t>
+  </si>
+  <si>
+    <t>aarq4u59zcgcm3km6yb0rikjt</t>
+  </si>
+  <si>
+    <t>4yy1apqvpdzlrugwaamnw8yoz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -175,6 +175,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9ECE6A"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -199,12 +205,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +533,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -535,139 +544,139 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
